--- a/test_workflow_results.xlsx
+++ b/test_workflow_results.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -49,6 +49,27 @@
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -426,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,22 +456,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Payment</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Outlet</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Food</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Beverage</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Tax</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Gratuity</t>
         </is>
@@ -459,80 +490,91 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
+          <t>VIMC</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
           <t>Lobby Bar</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>478</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>612</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>83.76000000000001</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>191.58</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>Rain 903</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>163</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>9.779999999999999</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>36.7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>In-Room Dining</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>29</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>1.44</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>11.8</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>Coffee Corner</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>181.3</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>11.02</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>21</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A5"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>